--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -10,6 +10,7 @@
     <sheet name="1반" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2반" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,22 +474,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -498,17 +499,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,7 +519,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -528,27 +529,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -558,17 +559,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -579,6 +580,126 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -593,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +755,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -644,17 +765,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -664,17 +785,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -684,7 +805,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -694,27 +815,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -724,7 +845,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -734,17 +855,137 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -759,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,27 +1041,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -830,12 +1071,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -845,12 +1086,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -860,7 +1101,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -870,17 +1111,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -895,22 +1136,428 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>수학2</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -10,6 +10,7 @@
     <sheet name="1반" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2반" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +469,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,17 +499,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,7 +519,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -528,17 +529,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -548,7 +549,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -558,27 +559,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -593,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,27 +665,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -664,27 +695,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -694,27 +725,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -724,7 +755,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -734,17 +765,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -759,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,27 +861,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -830,17 +891,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -850,7 +911,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -860,12 +921,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -875,12 +936,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -890,17 +951,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -909,6 +970,232 @@
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>영어</t>
         </is>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2반" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5반" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,22 +475,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -499,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -529,12 +530,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,7 +550,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -559,12 +560,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,12 +575,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -589,27 +590,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -619,27 +620,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -649,12 +650,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -664,12 +665,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -679,27 +680,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -755,27 +756,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -785,27 +786,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -815,7 +816,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -825,17 +826,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -845,27 +846,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -875,12 +876,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -890,12 +891,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -905,27 +906,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -935,27 +936,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -965,27 +966,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1042,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1056,12 +1057,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1072,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1086,12 +1087,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1101,27 +1102,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1131,27 +1132,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1161,27 +1162,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1197,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1221,27 +1222,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1251,27 +1252,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1327,17 +1328,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1347,7 +1348,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1358,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1372,12 +1373,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1387,22 +1388,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1417,27 +1418,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1447,22 +1448,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1477,27 +1478,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1507,27 +1508,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1538,313 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>국어1</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="1반" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2반" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +463,1104 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -469,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -499,27 +499,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -529,22 +529,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -559,27 +559,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -589,27 +589,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -619,27 +619,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -649,27 +649,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -679,27 +679,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -755,27 +755,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -785,12 +785,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -875,27 +875,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -935,27 +935,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -965,27 +965,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1071,27 +1071,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1101,27 +1101,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1161,27 +1161,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1221,27 +1221,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1327,12 +1327,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1357,27 +1357,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1387,27 +1387,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1447,27 +1447,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1477,27 +1477,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1507,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1537,27 +1537,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2반" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5반" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,27 +470,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -499,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -529,27 +530,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -559,12 +560,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +575,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -594,22 +595,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -619,27 +620,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -649,17 +650,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -669,7 +670,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -679,27 +680,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -755,27 +756,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -785,17 +786,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -805,7 +806,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -815,12 +816,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -830,12 +831,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -855,17 +856,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -875,17 +876,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -895,7 +896,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -905,17 +906,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -935,17 +936,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -955,7 +956,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -970,17 +971,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1041,27 +1042,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1071,27 +1072,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1101,27 +1102,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1131,12 +1132,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1146,12 +1147,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1161,27 +1162,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1192,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1221,27 +1222,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1252,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1327,27 +1328,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1357,27 +1358,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1387,12 +1388,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1402,12 +1403,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1417,12 +1418,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1432,12 +1433,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1447,27 +1448,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1477,27 +1478,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1507,27 +1508,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1537,27 +1538,313 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>수학1</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -470,27 +470,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -530,27 +530,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -565,22 +565,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -590,27 +590,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -620,27 +620,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -650,27 +650,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -906,27 +906,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -966,27 +966,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1072,27 +1072,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1102,27 +1102,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1132,22 +1132,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1192,22 +1192,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1222,22 +1222,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1328,17 +1328,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1388,27 +1388,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1448,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1478,27 +1478,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1508,22 +1508,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1538,27 +1538,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1614,22 +1614,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1644,27 +1644,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1674,27 +1674,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1709,22 +1709,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1744,17 +1744,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1764,27 +1764,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1794,27 +1794,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1824,27 +1824,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -12,6 +12,9 @@
     <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="5반" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6반" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7반" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8반" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -500,27 +503,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -530,17 +533,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -560,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,7 +573,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -580,7 +583,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -590,27 +593,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -620,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,12 +633,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -650,12 +653,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -665,12 +668,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -685,22 +688,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -756,27 +759,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -786,27 +789,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -816,27 +819,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -846,27 +849,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -876,27 +879,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -911,17 +914,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -946,17 +949,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -966,27 +969,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1045,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1052,17 +1055,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1072,17 +1075,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1092,7 +1095,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1102,27 +1105,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1140,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1162,27 +1165,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1195,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1202,17 +1205,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1222,27 +1225,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1252,27 +1255,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1328,27 +1331,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1358,17 +1361,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1378,7 +1381,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1388,27 +1391,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1421,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1448,27 +1451,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1478,27 +1481,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -1508,27 +1511,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1543,22 +1546,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1614,22 +1617,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1644,27 +1647,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1682,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1689,12 +1692,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1704,27 +1707,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1734,17 +1737,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1754,7 +1757,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1764,27 +1767,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1794,17 +1797,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1814,7 +1817,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1824,27 +1827,885 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>수학1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>수학2</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -10,6 +10,7 @@
     <sheet name="1반" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2반" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="3반" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4반" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,12 +469,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,12 +484,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -498,12 +499,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -513,12 +514,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -533,22 +534,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -558,27 +559,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -588,27 +589,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -623,22 +624,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -648,27 +649,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -678,22 +679,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -759,22 +760,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -784,17 +785,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -804,7 +805,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
     </row>
@@ -814,27 +815,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -844,27 +845,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -874,27 +875,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -904,27 +905,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -934,22 +935,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -964,27 +965,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1040,27 +1041,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
     </row>
@@ -1070,27 +1071,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -1100,27 +1101,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어2</t>
         </is>
       </c>
     </row>
@@ -1130,27 +1131,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1165,22 +1166,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1190,27 +1191,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1220,22 +1221,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1250,27 +1251,313 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>과학</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>월</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>화</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>수</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>목</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>수학2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>수학1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>체육</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>과학</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>국어1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>영어</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>국어2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>국어2</t>
         </is>
       </c>
     </row>

--- a/ALL_class.xlsx
+++ b/ALL_class.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -529,27 +529,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -559,27 +559,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,97 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>수학1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>수학2</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -714,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +665,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -765,17 +675,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -785,27 +695,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -815,12 +725,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -830,12 +740,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
@@ -845,27 +755,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -875,117 +785,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>체육</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>수학2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1000,7 +820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,27 +861,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1071,22 +891,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1106,22 +926,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1131,22 +951,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1161,117 +981,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>국어1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>수학2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>수학2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1327,7 +1057,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1337,17 +1067,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>수학1</t>
         </is>
       </c>
     </row>
@@ -1357,27 +1087,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>체육</t>
         </is>
       </c>
     </row>
@@ -1387,27 +1117,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>영어</t>
         </is>
       </c>
     </row>
@@ -1422,22 +1152,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>수학1</t>
+          <t>국어1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>수학2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>체육</t>
+          <t>국어1</t>
         </is>
       </c>
     </row>
@@ -1447,17 +1177,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>국어1</t>
+          <t>체육</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>과학</t>
+          <t>수학1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1467,97 +1197,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>과학</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>수학1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>체육</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>과학</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>국어1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>사회</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>영어</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>국어2</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>국어2</t>
+          <t>사회</t>
         </is>
       </c>
     </row>
